--- a/Files/EXCEL Output/Assignment2.xlsx
+++ b/Files/EXCEL Output/Assignment2.xlsx
@@ -130,21 +130,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" headerRowCount="1">
-  <autoFilter ref="A1:D2"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" headerRowCount="1">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Measure Name"/>
     <tableColumn id="2" name="Measure Expression"/>
     <tableColumn id="3" name="Measure Data Type"/>
-    <tableColumn id="4" name="Measure Description"/>
+    <tableColumn id="4" name="Measure Folder"/>
+    <tableColumn id="5" name="Measure Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:I5" headerRowCount="1">
-  <autoFilter ref="A1:I5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:I6" headerRowCount="1">
+  <autoFilter ref="A1:I6"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
@@ -465,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +477,8 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -497,6 +499,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Measure Folder</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Measure Description</t>
         </is>
       </c>
@@ -509,7 +516,10 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>SUM('Sales SalesOrderDetail'[DerivedLineTotal])</t>
+          <t xml:space="preserve">
+SUM (
+    'Sales SalesOrderDetail'[DerivedLineTotal]
+)</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -519,7 +529,12 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation sums up the total line items from the Sales SalesOrderDetail table. This value can be used to determine the total sales in that table.</t>
+          <t>No Folder Defined</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>This calculation is essentially adding up all of the derived line totals from a sales salesorderdetail table. This would allow a business to know total sales for all of the sales lines for a specific sales order.</t>
         </is>
       </c>
     </row>
@@ -537,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,11 +620,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Production Product</t>
+          <t>Sales SalesOrderDetail</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -629,7 +644,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>Sales_SalesOrderDetail</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -638,150 +653,15 @@
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>No Modification</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Sales SalesOrderDetail</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>import</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Sql.Database</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>"MAQN0366\SQLEXPRESS", "AdventureWorks2012"</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>#"Rounded Off"</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>No Query</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Rounded Off" = Table.TransformColumns(Sales_SalesOrderDetail,{{"LineTotal", each Number.Round(_, 2), type number}})
 </t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Round the values in the "LineTotal" column to two decimal places.
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Rounding off the LineTotal column in the Sales_SalesOrderDetail table to two decimal places.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Sales SalesOrderHeader</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>import</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Sql.Database</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>"MAQN0366\SQLEXPRESS", "AdventureWorks2012"</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>No Query</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>No Modification</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Sales SalesTerritory</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>import</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Sql.Database</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>"MAQN0366\SQLEXPRESS", "AdventureWorks2012"</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>No Query</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>No Modification</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>No Description</t>
         </is>
       </c>
     </row>

--- a/Files/EXCEL Output/Assignment2.xlsx
+++ b/Files/EXCEL Output/Assignment2.xlsx
@@ -517,9 +517,7 @@
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">
-SUM (
-    'Sales SalesOrderDetail'[DerivedLineTotal]
-)</t>
+SUM('Sales SalesOrderDetail'[DerivedLineTotal])</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -534,7 +532,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is essentially adding up all of the derived line totals from a sales salesorderdetail table. This would allow a business to know total sales for all of the sales lines for a specific sales order.</t>
+          <t>This calculation is the sum of the line total derived from the SalesOrderDetail table. The line total value is the unit price of a particular item multiplied by the quantity of that item in a given sales order. This provides an overall total of the sales order.</t>
         </is>
       </c>
     </row>
@@ -660,7 +658,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Rounding off the LineTotal column in the Sales_SalesOrderDetail table to two decimal places.
+          <t xml:space="preserve">1. This round offs all the line item totals to the nearest 2 decimal places.
 </t>
         </is>
       </c>
